--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf17.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf17.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H2">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I2">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J2">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.04153863189166667</v>
+        <v>0.04276051123888888</v>
       </c>
       <c r="R2">
-        <v>0.373847687025</v>
+        <v>0.3848446011499999</v>
       </c>
       <c r="S2">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="T2">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.983764</v>
       </c>
       <c r="I3">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J3">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>0.1842835913</v>
       </c>
       <c r="S3">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="T3">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7943223333333332</v>
+        <v>2.006290666666667</v>
       </c>
       <c r="H4">
-        <v>2.382967</v>
+        <v>6.018872</v>
       </c>
       <c r="I4">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="J4">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.04959881036388888</v>
+        <v>0.1252761330444444</v>
       </c>
       <c r="R4">
-        <v>0.4463892932749999</v>
+        <v>1.1274851974</v>
       </c>
       <c r="S4">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="T4">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
     </row>
   </sheetData>
